--- a/data/PW004.xlsx
+++ b/data/PW004.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>emailid</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Extras</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -55,10 +58,13 @@
     <t>1</t>
   </si>
   <si>
+    <t>White Rice ($0.49)</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>01/30/2017</t>
+    <t>03/03/2017</t>
   </si>
   <si>
     <t>12:00 PM</t>
@@ -284,10 +290,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -295,13 +301,14 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.9234693877551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.16326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8622448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.8214285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.1836734693878"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.484693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="10.9948979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.8214285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.1836734693878"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,18 +322,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -334,46 +341,52 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="str">
+        <f aca="false">TEXT(F2,"mmmm d")</f>
+        <v>March 3</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f aca="false">TEXT(E2,"mmmm dd")</f>
-        <v>January 30</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>16</v>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="sudharsan.kg@saggezza.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="sudharsan.kg@saggezza.com"/>
-    <hyperlink ref="I2" r:id="rId3" display="sudharsan@27"/>
+    <hyperlink ref="I2" r:id="rId2" display="sudharsan.kg@saggezza.com"/>
+    <hyperlink ref="J2" r:id="rId3" display="sudharsan@27"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
